--- a/simulation/ma_sim_H4.xlsx
+++ b/simulation/ma_sim_H4.xlsx
@@ -255,6 +255,9435 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for AUD_CAD MA_30_MA_120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'AUD_CAD'!$L$2:$L$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>44098.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44140.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44172.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44179.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44217.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44238.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44259.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44301.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44315.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44357.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44368.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44388.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44399.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44440.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44460.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44489.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44508.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44545.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44567.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44599.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44637.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44642.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44665.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44706.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44721.875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44762.875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44795.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44827.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44830.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44862.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44916.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44928.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44964.41666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUD_CAD'!$M$2:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-45.39999999999988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-62.99999999999972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-235.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-80.69999999999908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-125.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-121.1999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.600000000001302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-175.4999999999984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.899999999998329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-62.3999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-61.20000000000012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-109.6000000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-71.10000000000058</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-40.7999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-29.79999999999869</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-45.99999999999824</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.20000000000201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-17.59999999999759</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106.0000000000028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400.8000000000034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>410.8000000000034</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>464.0000000000033</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>720.9000000000033</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>636.4000000000026</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>777.8000000000019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>883.400000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>956.5000000000024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>901.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1020.300000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1447.600000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1372.700000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1431.600000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1431.600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for GBP_AUD MA_30_MA_80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GBP_AUD'!$L$2:$L$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>44098.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44118.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44118.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44139.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44155.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44165.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44194.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44200.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44214.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44238.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44246.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44249.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44257.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44272.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44280.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44295.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44309.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44312.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44319.875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44357.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44364.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44377.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44381.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44383.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44385.375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44421.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44426.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44438.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44453.375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44466.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44511.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44540.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44553.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44558.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44560.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44585.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44588.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44602.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44664.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44683.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44693.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44707.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44726.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44747.875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44775.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44783.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44812.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44826.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44837.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44869.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44886.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44918.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44945.75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44952.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44971.58333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GBP_AUD'!$M$2:$M$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>-85.90000000000097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-236.6000000000024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-272.3000000000031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-393.6000000000028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-508.4000000000021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-156.7000000000029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-155.2000000000042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-35.60000000000453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142.7999999999963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.999999999997442</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-185.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-313.2000000000023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-247.0000000000038</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-406.8000000000048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-523.9000000000059</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-422.3000000000064</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-497.6000000000068</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-598.0000000000073</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-268.4000000000063</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-430.8000000000066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-437.2000000000086</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-420.2000000000104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-494.2000000000112</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-701.2000000000106</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-430.4000000000107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-547.700000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-600.3000000000113</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-628.4000000000111</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-708.4000000000112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-232.0000000000122</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-103.6000000000126</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-148.2000000000139</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-107.200000000014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-154.2000000000133</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>172.2999999999874</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74.99999999998727</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-25.80000000001361</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1434.799999999987</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1730.899999999988</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1718.59999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1690.099999999992</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1969.199999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2090.499999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2031.999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1733.699999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2035.599999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2012.999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1657.199999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1814.700000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1434.000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1539.100000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1618.600000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1126.200000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1116.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1116.800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50100001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50100002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for GBP_CAD MA_30_MA_40</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GBP_CAD'!$L$2:$L$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="117"/>
+                <c:pt idx="0">
+                  <c:v>44092.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44098.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44102.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44110.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44113.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44113.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44125.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44133.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44134.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44139.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44145.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44165.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44182.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44200.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44202.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44203.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44209.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44216.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44217.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44231.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44237.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44257.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44278.375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44280.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44286.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44295.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44302.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44313.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44326.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44327.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44329.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44334.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44336.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44342.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44347.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44350.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44356.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44372.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44381.875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44383.375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44385.375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44399.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44405.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44412.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44414.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44419.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44426.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44434.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44439.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44442.375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44446.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44456.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44476.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44477.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44488.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44496.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44497.375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44497.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44512.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44516.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44517.75</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44525.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44531.75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44536.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44545.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44565.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44568.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44573.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44587.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44602.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44606.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44617.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44656.875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44657.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44662.875</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44671.375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44686.875</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44689.875</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44693.875</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44697.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44701.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44712.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44725.375</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44726.375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44732.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44736.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44761.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44764.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44769.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44781.875</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44789.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44790.375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44816.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44817.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44818.875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44824.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44824.375</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44825.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44837.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44844.875</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44848.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44855.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44860.875</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44868.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44876.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44914.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44929.75</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44931.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44938.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44952.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44957.75</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44958.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44970.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44973.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44977.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44978.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44979.58333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GBP_CAD'!$M$2:$M$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="117"/>
+                <c:pt idx="0">
+                  <c:v>-59.80000000000096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-230.8000000000021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-289.0000000000037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-229.400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-269.2000000000028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-329.8000000000023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-190.4000000000017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-196.4000000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-391.2000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-593.2000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-549.5000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-527.5000000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-464.9000000000016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-359.0000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-366.5999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-451.4999999999981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-411.7999999999979</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-425.6999999999979</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-258.799999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-311.3999999999974</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-288.1999999999986</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-19.79999999999887</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-103.199999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-206.5999999999992</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-360.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-472.1999999999983</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-559.8999999999978</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-416.1999999999979</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-400.5999999999978</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-380.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-383.3999999999984</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-397.1999999999978</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-417.4999999999976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-490.5999999999968</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-560.9999999999961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-621.299999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-609.099999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-520.6999999999964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-421.1999999999974</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-579.6999999999988</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-599.4999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-740.6000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-732.3000000000017</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-699.2000000000024</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-787.0000000000025</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-844.0000000000028</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-913.2000000000032</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-950.0000000000045</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-972.7000000000045</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-993.5000000000031</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-904.6000000000024</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-552.8000000000025</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-648.4000000000026</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-706.5000000000013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-765.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-793.8000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-783.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-613.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-670.000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-882.8000000000017</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1040.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1199.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1293.400000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1394.300000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1234.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1227.300000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1270.400000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1155.300000000004</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-920.6000000000029</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-911.1000000000028</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1022.100000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-214.4000000000038</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-186.6000000000038</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-307.8000000000051</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-428.2000000000056</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>52.89999999999537</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>102.6999999999974</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>127.7999999999976</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>62.79999999999583</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-63.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-76.40000000000347</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>215.2999999999957</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>181.5999999999948</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-116.2000000000066</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-208.2000000000076</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>143.9999999999927</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91.99999999999397</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-77.20000000000425</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-132.9000000000028</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-135.4000000000014</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-96.40000000000123</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>311.1999999999978</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>342.7999999999984</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>353.7999999999994</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>352.7999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>330.2000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>280.0000000000022</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>162.4000000000023</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>160.500000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-82.29999999999981</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-212.0000000000013</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-596.4000000000016</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-739.8000000000018</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-745.3000000000022</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>231.9999999999986</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>486.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>262.3999999999979</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>65.99999999999693</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>334.5999999999958</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>537.7999999999947</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>584.9999999999953</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>822.5999999999954</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>747.6999999999954</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>681.9999999999957</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>882.9999999999957</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>943.5999999999952</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>943.5999999999952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50110001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50110002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for GBP_JPY MA_10_MA_20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GBP_JPY'!$L$2:$L$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+                <c:pt idx="0">
+                  <c:v>44089.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44090.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44090.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44090.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44098.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44111.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44112.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44117.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44123.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44127.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44137.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44140.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44143.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44147.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44152.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44153.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44158.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44162.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44166.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44172.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44174.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44176.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44180.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44186.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44188.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44194.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44195.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44201.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44203.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44211.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44216.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44222.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44222.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44230.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44231.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44236.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44237.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44253.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44257.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44271.375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44273.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44274.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44281.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44292.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44298.875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44299.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44299.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44299.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44304.875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44307.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44313.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44319.375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44320.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44323.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44326.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44330.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44332.875</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44336.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44340.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44340.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44343.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44348.375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44350.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44354.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44358.375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44363.875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44369.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44372.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44378.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44382.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44382.875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44383.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44389.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44391.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44399.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44410.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44413.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44418.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44418.875</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44420.875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44432.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44437.875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44438.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44446.375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44449.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44453.875</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44456.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44459.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44462.375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44468.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44473.375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44476.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44476.875</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44490.875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44495.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44497.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44509.75</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44510.25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44515.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44519.25</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44523.75</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44525.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44537.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44539.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44543.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44544.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44545.25</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44550.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44552.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44568.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44571.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44571.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44573.25</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44574.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44579.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44579.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44587.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44599.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44600.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44606.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44608.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44610.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44621.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44621.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44623.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44624.75</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44629.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44650.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44652.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44673.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44679.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44684.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44697.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44700.375</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44704.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44706.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44707.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44722.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44728.875</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44735.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44739.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44741.875</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44750.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44754.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44756.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44763.875</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44768.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44770.875</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44776.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44778.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44781.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44783.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44790.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44792.375</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44799.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44804.375</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44806.375</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44809.875</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44810.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44816.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44816.375</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44818.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44824.875</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44825.875</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44832.375</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44840.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44846.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44854.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44859.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44862.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44864.875</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44866.875</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44872.75</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44874.75</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44880.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44890.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44896.75</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44896.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44900.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44909.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44911.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44911.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44922.25</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44925.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44930.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44938.25</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44943.75</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44951.25</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44952.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44957.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44963.75</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44965.25</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44966.75</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44973.75</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44977.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44980.75</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44984.41666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GBP_JPY'!$M$2:$M$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+                <c:pt idx="0">
+                  <c:v>-9.900000000001796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-44.40000000000168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-70.69999999999936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.10000000000218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310.6000000000023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>282.3000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>209.4999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205.1999999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>212.1999999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>335.3999999999985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>390.7999999999987</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>357.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>527.200000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>517.2000000000025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>517.2000000000025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>491.8000000000035</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>566.900000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>538.2000000000033</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>467.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>352.1000000000015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>224.6000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>214.8000000000025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>187.8000000000043</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.40000000000566</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>83.80000000000507</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.00000000000534</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-96.39999999999418</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-217.399999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-179.3999999999954</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-228.2999999999959</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-184.5999999999947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-214.999999999992</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-108.9999999999918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-199.4999999999919</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-186.2999999999914</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-197.1999999999923</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>214.2000000000081</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>172.6000000000084</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>384.6000000000089</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>313.5000000000105</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>217.8000000000111</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>246.2000000000103</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>361.200000000008</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>494.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>438.4000000000043</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>439.9000000000029</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>407.0000000000022</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>354.200000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>385.8000000000033</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>404.000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>552.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>555.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>575.7999999999981</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>444.0999999999974</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>530.0999999999988</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>528.3999999999992</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>482.8999999999979</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>454.1999999999973</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>458.899999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>380.5999999999955</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>423.7999999999943</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>401.0999999999939</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>333.5999999999927</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>311.5999999999929</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>287.7999999999929</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>335.1999999999919</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>311.3999999999919</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>359.6999999999923</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>367.0999999999935</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>369.999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>250.9999999999962</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>236.5999999999957</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>214.8999999999972</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>343.9999999999969</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>483.7999999999965</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>480.3999999999974</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>535.3999999999985</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>542.4000000000007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>493.0000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>675.7000000000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>710.3000000000009</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>687.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>732.4000000000012</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>651.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>524.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>542.9999999999978</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>434.5999999999975</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>325.2999999999986</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>248.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>168.1999999999988</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>254.1999999999973</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>237.1999999999986</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>759.0000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>780.7000000000016</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>675.6000000000029</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>980.7000000000045</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1000.200000000007</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1012.400000000008</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1015.200000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>927.8000000000048</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>897.2000000000037</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1221.200000000005</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1182.200000000006</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1130.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1119.300000000007</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1086.400000000006</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1005.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>885.800000000009</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1468.10000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1437.400000000008</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1313.200000000006</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1202.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1091.200000000009</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1112.500000000012</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1108.700000000013</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1230.400000000015</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1373.400000000015</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1330.800000000017</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1307.900000000018</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1254.200000000018</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1233.000000000016</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1452.400000000015</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1414.500000000013</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1341.600000000011</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1065.400000000011</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>998.6000000000106</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1704.200000000009</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1601.200000000009</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2057.700000000009</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2283.400000000006</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2297.500000000005</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2773.600000000005</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2740.200000000004</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2561.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2490.600000000003</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2384.400000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2897.000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3013.200000000003</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3073.700000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2936.800000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2883.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3170.699999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3173.699999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2983.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2979.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2969.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2868.799999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2982.999999999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3019.1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2984.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2888.600000000002</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2805.800000000002</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2699.200000000002</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2752.200000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2723.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2630.200000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2667.200000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2527.300000000002</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2743.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2695.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2562.300000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2747.500000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2617.500000000004</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3401.000000000005</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4121.300000000005</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4016.600000000005</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4530.700000000004</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4448.900000000003</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4591.200000000003</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4381.200000000004</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4119.200000000004</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4181.100000000004</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3926.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3990.400000000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4207.100000000003</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4400.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4356.6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4234.400000000002</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4346.800000000005</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4358.700000000004</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4297.600000000002</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4937.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4847.8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4900.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4927</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5124.999999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5361.6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5260.200000000003</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5178.700000000003</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5239.200000000002</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5113.100000000002</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4993.200000000003</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5111.200000000004</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5029.400000000006</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5073.200000000008</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4901.000000000007</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4901.000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for GBP_USD MA_40_MA_120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GBP_USD'!$L$2:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>44084.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44109.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44138.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44144.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44180.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44181.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44263.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44305.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44357.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44406.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44425.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44444.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44460.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44483.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44503.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44553.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44587.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44602.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44619.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44648.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44655.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44705.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44724.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44768.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44791.875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44844.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44848.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44851.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44918.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44938.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44963.58333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GBP_USD'!$M$2:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-22.60000000000151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-91.20000000000238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-346.4000000000023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-137.8000000000013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-213.6000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.0000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.700000000001694</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108.9000000000029</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>238.2000000000039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.20000000000431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28.39999999999513</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-215.5999999999936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-224.1999999999922</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-220.3999999999917</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.60000000000883</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>161.6000000000106</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>98.80000000001218</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-109.7999999999866</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>158.4000000000141</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>171.0000000000145</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>791.8000000000135</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>581.0000000000114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>831.6000000000099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>712.6000000000097</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1538.00000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1637.00000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1549.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2317.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2133.900000000011</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1927.200000000011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1927.200000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50130001"/>
+        <c:axId val="50130002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50130001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50130002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for USD_CAD MA_40_MA_80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USD_CAD'!$L$2:$L$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>44084.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44111.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44132.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44144.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44154.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44160.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44188.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44201.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44214.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44216.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44224.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44237.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44260.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44269.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44281.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44294.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44350.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44351.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44355.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44406.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44418.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44439.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44452.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44469.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44501.375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44542.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44546.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44559.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44587.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44607.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44608.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44623.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44624.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44624.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44629.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44638.375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44662.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44701.375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44726.375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44741.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44749.375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44763.375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44782.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44789.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44792.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44818.375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44823.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44858.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44889.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44923.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44951.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44953.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44965.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USD_CAD'!$M$2:$M$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>117.5000000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191.2000000000025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-19.49999999999673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-81.9999999999954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-148.1999999999939</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17.49999999999253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-142.0999999999917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-121.8999999999926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-201.1999999999925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-391.9999999999923</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-551.3999999999929</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-532.3999999999928</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-726.1999999999923</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-837.0999999999927</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-802.1999999999928</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-249.0999999999909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-229.4999999999891</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-258.9999999999891</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92.70000000001005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.0000000000093</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>143.2000000000078</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>121.6000000000062</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>193.8000000000062</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>533.000000000008</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>862.4000000000076</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>784.5000000000057</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>767.6000000000038</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>841.2000000000019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>866.2000000000013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>904.0000000000025</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>901.4000000000033</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>890.500000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>925.600000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>823.4000000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>622.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>654.9000000000027</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>852.4000000000043</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>715.0000000000057</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>668.7000000000065</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>550.6000000000078</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>442.8000000000076</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>487.4000000000067</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>529.8000000000069</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>432.4000000000061</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>623.8000000000054</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>555.4000000000059</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>991.6000000000058</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1338.600000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1529.000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1692.400000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1642.600000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1590.800000000006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1590.800000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50140001"/>
+        <c:axId val="50140002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50140001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50140002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for USD_JPY MA_20_MA_120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USD_JPY'!$L$2:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>44089.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44105.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44119.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44146.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44152.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44168.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44168.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44207.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44298.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44318.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44337.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44344.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44385.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44417.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44425.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44431.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44431.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44433.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44440.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44440.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44445.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44446.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44453.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44463.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44507.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44515.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44530.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44552.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44575.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44591.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44613.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44620.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44622.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44624.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44697.375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44714.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44768.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44791.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44862.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44866.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44869.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44963.58333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USD_JPY'!$M$2:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>-18.69999999999976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-55.49999999999926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-76.2999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-209.2999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-203.5999999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-219.8999999999984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-250.2999999999986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>264.3000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>263.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>192.1000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.10000000000076</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.00000000000136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.700000000002035</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-95.49999999999841</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-138.3999999999986</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-139.4999999999982</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-161.9999999999976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-157.5999999999965</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-152.1999999999963</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-166.1999999999964</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-208.2999999999956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-270.6999999999951</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-382.8999999999951</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-98.79999999999569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-121.7999999999961</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-223.6999999999952</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-355.5999999999941</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-396.0999999999942</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-567.8999999999945</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-639.1999999999939</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-721.4999999999932</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-770.2999999999931</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-806.2999999999931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>581.5000000000082</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>522.1000000000088</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1195.100000000008</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1269.100000000009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2452.300000000011</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2383.100000000013</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2314.000000000015</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3808.300000000017</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3808.300000000017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50150001"/>
+        <c:axId val="50150002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50150001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50150002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for AUD_JPY MA_30_MA_80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'AUD_JPY'!$L$2:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>44084.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44109.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44120.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44140.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44158.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44161.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44217.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44232.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44279.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44288.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44298.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44305.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44309.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44314.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44335.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44347.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44361.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44418.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44425.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44438.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44454.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44467.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44504.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44543.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44572.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44599.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44677.875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44706.875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44728.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44742.375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44743.375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44757.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44774.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44783.875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44824.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44853.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44869.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44869.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44871.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44909.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44915.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44932.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44944.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44951.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44964.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44972.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUD_JPY'!$M$2:$M$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>129.6999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.69999999999953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-103.5999999999987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-33.29999999999842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-101.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.2000000000025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>226.7000000000024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>431.5000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>277.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131.1999999999983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.09999999999758</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-46.20000000000317</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.299999999995975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.99999999999591</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.100000000003831</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>327.6999999999958</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>178.2999999999959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>133.599999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>145.2999999999975</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93.39999999999691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>513.0999999999972</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>909.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1115.499999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1257.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2184.699999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2226.899999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2477.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2399.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2172.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1934.899999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1840.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1742.899999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1970.899999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2186.899999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2260.299999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2253.599999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2217.299999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2383.099999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1930.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1690.299999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1705.899999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1615.499999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1548.899999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1444.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1444.799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for AUD_USD MA_30_MA_120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'AUD_USD'!$L$2:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>44096.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44117.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44123.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44141.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44223.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44238.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44259.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44301.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44334.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44358.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44358.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44440.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44456.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44477.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44505.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44547.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44572.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44574.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44581.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44603.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44664.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44705.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44725.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44763.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44792.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44861.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44915.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44925.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44965.08333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUD_USD'!$M$2:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>33.99999999999959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45.60000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-206.8999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.10000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.99999999999937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.59999999999891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153.4999999999986</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125.2999999999982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>449.4999999999982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>344.5999999999983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>321.1999999999982</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>425.7999999999984</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>654.3999999999983</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>674.7999999999987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>576.1999999999989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>517.7999999999982</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>568.8999999999977</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>816.4999999999977</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1179.299999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1061.199999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1104.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1077.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1486.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1698.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1560.899999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1708.599999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1708.599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for CAD_JPY MA_30_MA_80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CAD_JPY'!$L$2:$L$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>44084.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44109.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44125.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44143.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44154.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44162.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44186.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44201.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44223.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44229.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44280.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44286.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44298.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44314.375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44357.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44375.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44377.375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44382.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44384.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44404.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44414.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44418.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44425.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44438.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44449.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44466.875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44498.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44540.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44546.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44557.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44585.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44600.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44610.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44623.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44630.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44631.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44679.875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44684.875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44687.375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44687.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44692.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44712.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44729.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44739.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44748.875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44755.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44770.375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44785.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44824.375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44841.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44866.875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44875.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44875.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44935.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44942.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44952.41666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CAD_JPY'!$M$2:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>107.7999999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118.6999999999983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.7999999999978</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.5999999999979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.09999999999889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.1999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.00000000000028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154.3000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.00000000000108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512.7000000000023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>368.9000000000035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>273.2000000000041</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>197.6000000000041</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>444.1000000000045</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>523.5000000000056</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>499.2000000000061</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>440.2000000000057</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>309.100000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>456.500000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>532.200000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>489.2000000000023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>322.2000000000021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>266.8000000000019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>242.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>151.1000000000009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>561.3000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>851.700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>868.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>809.9999999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>818.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>714.5000000000009</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>639.0000000000014</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>502.4000000000014</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>390.3000000000019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>239.0000000000028</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1256.800000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1327.600000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1338.200000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1366.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1254.000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1092.800000000004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1254.700000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1096.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1014.600000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>840.0000000000057</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>755.2000000000057</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>811.4000000000055</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1150.000000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1338.800000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1554.300000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1553.200000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1348.400000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2126.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1879.500000000004</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1739.100000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1739.100000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for EUR_AUD MA_30_MA_120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EUR_AUD'!$L$2:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>44097.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44118.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44119.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44139.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44167.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44176.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44225.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44236.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44280.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44306.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44308.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44322.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44330.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44357.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44365.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44376.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44376.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44418.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44426.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44441.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44459.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44470.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44508.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44519.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44523.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44525.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44526.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44550.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44571.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44609.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44673.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44713.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44726.875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44749.875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44805.875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44866.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44887.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44895.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44901.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44929.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44965.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44970.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44973.58333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EUR_AUD'!$M$2:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>32.09999999999935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-50.50000000000221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-272.100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-289.4000000000041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-548.9000000000033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-296.9000000000044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-463.7000000000047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-347.5000000000028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-402.6000000000019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-509.3000000000014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-598.1000000000014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-736.4000000000015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-681.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-847.2999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-895.5999999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-912.6999999999974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-782.4999999999972</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-965.8999999999974</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1065.499999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1216.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1455.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1103.299999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1130.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1135.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1127.499999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1246.299999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1095.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1025.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1026.499999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.899999999998158</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>143.1000000000029</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-51.5999999999959</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-321.2999999999953</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-131.4999999999953</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>652.8000000000046</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>577.1000000000039</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>485.7000000000024</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>286.8000000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>280.4999999999993</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>430.4999999999983</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>388.9999999999973</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>318.3999999999967</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>318.3999999999967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for EUR_CAD MA_10_MA_120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EUR_CAD'!$L$2:$L$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>44085.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44102.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44102.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44109.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44110.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44112.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44126.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44127.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44130.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44137.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44148.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44160.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44160.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44173.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44182.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44203.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44224.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44229.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44293.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44315.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44342.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44344.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44347.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44349.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44355.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44358.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44362.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44364.875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44367.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44369.875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44376.875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44378.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44384.875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44407.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44411.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44413.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44425.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44456.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44458.875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44462.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44505.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44511.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44512.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44515.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44529.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44537.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44539.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44561.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44594.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44616.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44690.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44694.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44704.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44713.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44729.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44741.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44775.375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44776.375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44778.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44788.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44804.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44809.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44811.875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44866.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44873.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44930.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44938.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44963.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EUR_CAD'!$M$2:$M$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>-55.99999999999827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-102.9999999999975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-139.4999999999968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-183.1999999999967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-240.7999999999966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-244.9999999999952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-270.4999999999957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-312.4999999999978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-373.3999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-402.1999999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-464.5999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-472.6000000000008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-470.8000000000023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-542.4000000000029</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-568.500000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-550.9000000000032</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-673.4000000000019</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-240.4000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-275.4000000000013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-112.6000000000028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-157.1000000000035</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-186.4000000000045</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-248.8000000000047</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-299.0000000000049</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-357.2000000000065</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-462.0000000000069</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-552.2000000000072</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-617.6000000000071</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-686.9000000000059</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-742.9000000000042</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-793.4000000000042</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-829.6000000000059</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-779.8000000000061</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-864.4000000000052</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-943.200000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-963.9000000000042</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-868.0000000000043</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-923.400000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1036.800000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-581.8000000000011</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-613.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-647.8000000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-789.1000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-908.4999999999985</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1027.999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1120.399999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1063.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-956.8999999999936</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-884.4999999999923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-218.9999999999912</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-414.5999999999915</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-527.2999999999927</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-581.7999999999922</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-656.0999999999926</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-838.9999999999941</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-510.4999999999936</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-569.1999999999919</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-664.299999999991</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-726.7999999999919</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-741.199999999993</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-813.5999999999922</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-879.8999999999913</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-537.9999999999919</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-581.199999999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>256.2000000000062</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>142.2000000000054</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>154.8000000000058</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>154.8000000000058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for EUR_GBP MA_10_MA_20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EUR_GBP'!$L$2:$L$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="218"/>
+                <c:pt idx="0">
+                  <c:v>44089.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44094.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44098.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44104.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44105.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44110.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44113.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44118.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44119.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44120.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44126.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44130.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44132.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44140.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44144.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44147.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44152.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44155.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44155.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44160.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44169.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44172.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44174.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44175.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44180.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44183.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44188.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44194.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44196.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44201.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44204.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44215.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44216.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44218.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44222.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44225.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44227.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44236.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44237.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44239.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44242.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44252.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44256.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44259.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44259.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44267.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44277.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44280.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44292.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44299.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44299.875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44302.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44307.875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44313.875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44319.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44319.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44323.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44326.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44329.875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44334.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44335.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44337.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44341.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44343.375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44348.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44350.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44355.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44358.375</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44362.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44364.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44368.375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44369.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44372.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44377.875</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44379.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44382.375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44385.375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44389.375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44392.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44399.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44407.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44412.375</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44420.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44432.375</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44434.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44442.375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44446.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44448.375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44454.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44455.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44459.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44462.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44467.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44470.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44481.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44482.375</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44491.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44495.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44497.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44509.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44510.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44512.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44521.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44522.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44524.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44533.25</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44535.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44537.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44538.75</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44542.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44545.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44545.25</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44550.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44552.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44564.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44565.25</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44568.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44570.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44574.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44578.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44578.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44580.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44582.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44587.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44593.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44595.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44595.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44600.75</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44603.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44603.25</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44608.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44609.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44615.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44621.25</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44628.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44634.375</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44635.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44636.875</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44638.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44641.375</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44644.875</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44652.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44662.375</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44664.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44670.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44679.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44684.875</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44693.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44700.375</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44704.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44705.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44707.375</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44711.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44719.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44721.375</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44722.375</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44725.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44728.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44732.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44736.375</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44739.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44742.375</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44746.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44747.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44756.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44766.875</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44774.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44775.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44775.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44775.375</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44777.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44784.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44785.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44788.875</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44791.375</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44796.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44798.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44809.875</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44811.875</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44816.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44819.875</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44825.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44827.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44832.375</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44840.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44845.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44845.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44847.375</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44852.375</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44859.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44866.875</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44867.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44867.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44873.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44874.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44876.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44879.75</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44881.25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44893.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44896.25</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44901.25</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44904.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44909.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44924.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44925.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44929.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44932.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44935.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44936.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44943.25</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44949.25</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44952.75</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44957.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44964.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44972.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44977.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44981.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EUR_GBP'!$M$2:$M$219</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="218"/>
+                <c:pt idx="0">
+                  <c:v>38.39999999999954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.39999999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.60000000000034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.09999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.40000000000055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108.4000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.1999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.79999999999859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-42.80000000000172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-49.70000000000141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-73.70000000000098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-60.40000000000045</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-88.50000000000024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-42.60000000000041</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-45.70000000000074</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-21.90000000000137</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.19999999999817</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.09999999999825</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-23.70000000000205</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-145.8000000000026</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-173.1000000000027</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-124.8000000000027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-97.00000000000261</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-82.3000000000029</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-135.2000000000031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-153.3000000000029</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-181.2000000000024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-76.60000000000218</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-124.200000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-161.5000000000022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-203.2000000000022</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-205.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-222.2000000000013</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-171.3000000000009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-199.6000000000008</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-230.6000000000008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-288.2000000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-247.4000000000009</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-287.3000000000014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-275.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-275.8000000000026</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-203.500000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-192.0000000000032</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-202.4000000000036</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-225.2000000000042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-251.0000000000045</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-152.2000000000045</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-155.2000000000041</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-182.800000000004</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-153.8000000000038</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-93.000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-93.6000000000025</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-124.8000000000026</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-132.2000000000022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-215.200000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-221.2000000000024</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-220.2000000000025</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-246.5000000000028</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-261.9000000000026</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-294.8000000000017</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-328.9000000000008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-340.2000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-362.4000000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-375.6000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-408.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-443.0000000000011</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-506.8000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-530.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-539.6999999999995</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-562.5999999999996</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-568.8999999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-589.1999999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-619.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-663.2000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-714.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-695.9999999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-646.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-593.1999999999989</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-600.5999999999985</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-566.5999999999979</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-492.7999999999973</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-500.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-491.3999999999971</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-496.1999999999974</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-541.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-546.4999999999984</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-564.1999999999989</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-595.5999999999992</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-614.5999999999993</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-704.5999999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-745.7999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-637.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-632.0000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-598.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-634.7999999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-643.3999999999993</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-518.9999999999992</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-527.9999999999993</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-560.3999999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-422.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-415.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-414.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-311.7999999999996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-339.2999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-371.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-464.7999999999994</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-526.3999999999988</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-506.7999999999992</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-515.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-557.1999999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-612.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-508.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-525.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-507.8999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-505.9999999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-502.2000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-487.6000000000012</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-487.6000000000012</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-521.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-564.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-580.8999999999995</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-584.1999999999989</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-601.4999999999978</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-673.1999999999969</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-655.9999999999964</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-642.5999999999963</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-656.5999999999958</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-642.7999999999953</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-690.7999999999955</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-696.299999999996</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-692.5999999999962</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-676.9999999999961</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-622.2999999999964</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-680.3999999999962</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-726.1999999999954</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-748.1999999999952</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-779.7999999999956</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-737.999999999996</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-660.199999999996</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-600.199999999996</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-634.099999999996</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-593.7999999999963</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-449.699999999996</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-437.1999999999951</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-349.1999999999948</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-317.2999999999946</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-353.9999999999941</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-485.499999999994</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-543.1999999999946</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-545.4999999999952</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-565.5999999999959</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-633.7999999999964</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-702.199999999996</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-778.3999999999955</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-822.1999999999961</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-879.799999999996</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-900.3999999999954</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-960.999999999995</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-1011.099999999995</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-1056.199999999995</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-1061.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-925.599999999994</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-895.599999999994</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-757.7999999999938</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-745.8999999999936</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-760.0999999999934</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-803.7999999999932</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-876.0999999999929</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-853.7999999999922</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-862.5999999999922</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-888.5999999999926</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-895.599999999993</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-902.6999999999929</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-896.9999999999922</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-723.7999999999921</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-800.9999999999927</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-815.7999999999931</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-875.8999999999938</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-859.4999999999941</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-1028.599999999994</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-956.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-704.1999999999938</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-683.9999999999936</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-778.5999999999939</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-1002.199999999994</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-1081.999999999994</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-1039.199999999994</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-889.5999999999929</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-891.1999999999922</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-900.3999999999925</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-764.5999999999932</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-839.799999999994</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-897.7999999999943</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-926.9999999999935</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-950.3999999999925</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-831.8999999999922</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-879.1999999999923</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-902.7999999999926</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-892.5999999999934</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-842.1999999999941</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-578.3999999999946</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-575.1999999999948</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-607.3999999999949</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-634.7999999999945</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-653.5999999999945</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-671.1999999999942</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-641.6999999999941</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-575.5999999999941</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-596.0999999999941</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-627.9999999999943</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-530.2999999999938</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-517.3999999999937</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-530.7999999999938</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-456.8999999999937</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-456.8999999999937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for EUR_JPY MA_10_MA_20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EUR_JPY'!$L$2:$L$210</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="209"/>
+                <c:pt idx="0">
+                  <c:v>44084.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44089.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44098.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44099.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44103.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44106.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44109.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44116.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44123.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44126.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44130.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44131.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44138.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44147.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44158.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44162.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44165.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44172.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44175.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44179.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44180.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44181.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44182.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44187.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44192.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44196.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44202.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44207.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44215.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44217.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44218.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44222.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44224.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44229.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44232.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44237.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44238.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44245.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44248.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44256.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44258.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44263.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44263.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44263.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44264.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44271.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44273.375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44274.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44281.375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44292.375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44292.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44294.875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44298.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44299.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44300.875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44301.875</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44306.375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44307.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44309.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44319.375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44323.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44328.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44329.375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44336.875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44341.375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44348.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44348.875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44350.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44356.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44358.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44362.375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44364.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44369.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44374.875</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44378.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44382.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44389.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44391.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44398.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44405.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44406.375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44410.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44413.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44417.375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44419.375</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44421.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44431.375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44445.875</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44447.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44448.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44462.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44469.375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44474.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44476.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44477.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44490.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44496.375</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44496.875</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44498.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44501.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44503.875</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44504.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44523.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44525.75</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44525.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44526.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44531.25</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44532.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44537.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44540.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44545.75</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44550.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44551.75</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44568.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44571.25</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44571.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44573.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44575.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44579.25</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44579.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44588.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44589.25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44592.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44600.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44600.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44606.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44608.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44609.75</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44615.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44616.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44620.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44621.25</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44629.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44651.375</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44657.875</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44659.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44661.875</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44664.875</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44665.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44675.875</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44679.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44683.875</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44685.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44691.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44698.375</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44700.375</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44704.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44707.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44708.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44722.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44731.875</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44735.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44739.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44742.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44753.375</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44754.375</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44756.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44764.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44776.875</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44783.875</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44790.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44795.875</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44798.875</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44809.875</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44810.375</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44816.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44816.875</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44818.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44823.875</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44825.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44832.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44840.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44846.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44854.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44855.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44855.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44859.375</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44861.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44865.375</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44866.875</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44872.25</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44875.25</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44880.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44886.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44886.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44889.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44900.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44909.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44910.75</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44914.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44918.25</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44925.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44931.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44938.75</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44944.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44945.75</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44946.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44952.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44957.75</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44958.25</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44959.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44959.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44963.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44965.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44967.25</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44967.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44970.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44980.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44984.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EUR_JPY'!$M$2:$M$210</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="209"/>
+                <c:pt idx="0">
+                  <c:v>-20.09999999999934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>246.3000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215.0000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.6000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.4000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-34.39999999999941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-67.00000000000017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-40.9000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-75.80000000000098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-100.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-145.6000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-43.20000000000022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230.1000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>334.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>280.8000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>421.6000000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>403.0000000000015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>370.9000000000017</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>387.4000000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400.1000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>347.8000000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>326.8000000000015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>328.3000000000015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>349.4000000000014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>299.6000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>252.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>312.8000000000014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>289.400000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>237.4000000000024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>209.7000000000023</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>195.5000000000027</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>208.6000000000027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>148.2000000000028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135.0000000000037</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>117.6000000000045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>183.1000000000046</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>140.8000000000044</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>185.2000000000032</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>98.20000000000277</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.80000000000291</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31.00000000000307</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.10000000000275</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-19.89999999999839</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.00000000000227</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5.399999999997362</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-55.59999999999832</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-21.29999999999939</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.20000000000141</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.599999999999113</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.1000000000004775</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.19999999999766</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.80000000000291</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-46.80000000000177</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-93.80000000000166</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-140.300000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-183.8000000000022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-60.00000000000227</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-45.80000000000268</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-7.800000000003138</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-50.40000000000191</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24.69999999999857</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-15.20000000000152</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.599999999997294</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-20.20000000000266</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-30.00000000000114</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.99999999999955</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-3.900000000001569</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-12.0000000000033</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-65.00000000000341</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.599999999995475</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.399999999994634</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.599999999995362</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-56.40000000000498</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35.99999999999568</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-10.70000000000277</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.199999999996294</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-32.20000000000596</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-101.2000000000057</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-167.2000000000054</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-181.6000000000059</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-220.2000000000055</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-233.0000000000041</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-250.5000000000024</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-211.8000000000023</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-80.40000000000305</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-102.800000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-153.0000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-25.80000000000098</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>54.79999999999734</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>87.39999999999668</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>32.79999999999745</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-62.10000000000093</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>215.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>257.5999999999993</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>239.3999999999977</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>182.9999999999956</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>170.3999999999951</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>151.9999999999953</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>69.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>297.8999999999957</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>286.3999999999947</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>331.3999999999936</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>313.599999999991</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>331.5999999999889</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>271.0999999999885</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>273.9999999999895</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>315.7999999999902</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>262.399999999991</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>147.8999999999914</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41.79999999999211</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>275.5999999999943</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>281.9999999999965</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>216.1999999999978</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>107.1999999999974</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>16.49999999999636</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.699999999996862</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-79.40000000000111</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>36.60000000000139</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42.00000000000159</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>10.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>300.4999999999995</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>305.2999999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>221.5000000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>202.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>137.1999999999986</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>176.8999999999977</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>33.19999999999652</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.799999999996544</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-38.60000000000241</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>173.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1036.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1051.7</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1021.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>913.9999999999986</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1009.199999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>992.6999999999992</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1224.000000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1392.700000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1329.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1382.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1123.999999999998</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1030.799999999996</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1139.599999999996</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1104.999999999995</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1590.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1531.199999999995</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1546.399999999997</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1409.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1343.299999999996</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1743.199999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1612.199999999998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1415.599999999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1516.399999999999</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1969.999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2060.199999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1969.599999999997</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1848.099999999997</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1868.799999999996</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2230.999999999997</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2119.399999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2449.499999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2437.799999999996</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2289.599999999996</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2210.599999999997</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2096.799999999996</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2318.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2497.199999999995</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2512.699999999995</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3015.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2988.599999999994</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2821.999999999995</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2690.099999999996</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2579.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2421.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2243.799999999997</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2155.299999999995</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2090.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2206.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2258.999999999995</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2237.599999999996</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2110.399999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2179.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2221.7</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1969.000000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1858.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2324.2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2376.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2436.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2409.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2338.900000000002</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2147.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1943.000000000005</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1950.600000000004</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1940.000000000005</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1943.600000000005</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1906.800000000006</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1790.600000000008</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1586.700000000009</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1398.300000000011</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1450.600000000013</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1460.000000000015</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1321.200000000018</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1476.600000000018</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1408.600000000017</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1408.600000000017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for EUR_USD MA_30_MA_120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EUR_USD'!$L$2:$L$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>44082.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44090.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44091.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44091.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44095.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44113.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44134.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44144.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44209.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44239.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44258.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44295.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44355.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44407.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44418.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44438.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44456.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44489.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44504.375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44543.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44553.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44554.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44585.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44599.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44616.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44649.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44657.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44704.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44725.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44770.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44791.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44817.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44824.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44853.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44932.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44936.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44964.91666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EUR_USD'!$M$2:$M$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-65.10000000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-108.6999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-134.2999999999983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-180.7999999999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-181.2999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-283.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-403.1000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-32.40000000000128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.69999999999877</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-27.70000000000157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158.2999999999979</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>458.9999999999983</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>757.1999999999978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>617.099999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>558.5999999999979</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>538.8999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>665.1000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>576.4999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>870.4999999999984</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>929.599999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>946.5999999999951</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>931.8999999999943</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>804.1999999999948</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>618.6999999999941</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>776.5999999999938</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>592.8999999999938</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>812.0999999999932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>610.0999999999933</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>888.8999999999924</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>782.7999999999922</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>744.4999999999923</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>595.8999999999913</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>735.6999999999913</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1402.799999999991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1175.89999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1168.299999999989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1168.299999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,6 +9976,10 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -1332,6 +10765,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1342,6 +10776,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -2303,6 +11741,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2313,6 +11752,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -3770,6 +13213,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3780,6 +13224,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -5877,6 +15325,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5887,6 +15336,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -6656,6 +16109,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6666,6 +16120,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -7611,6 +17069,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7621,6 +17080,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -8478,6 +17941,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8488,6 +17952,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -9377,6 +18845,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9387,6 +18856,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -10140,6 +19613,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10150,6 +19624,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -11119,6 +20597,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11129,6 +20608,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -11994,6 +21477,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12004,6 +21488,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -13069,6 +22557,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13079,6 +22568,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -15344,6 +24837,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15354,6 +24848,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -17547,6 +27045,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17557,6 +27056,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -18374,5 +27877,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>